--- a/src/main/resources/examples/堆场装卸扬尘源.xlsx
+++ b/src/main/resources/examples/堆场装卸扬尘源.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22607"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{64A24286-8E79-D548-A3E0-E047C19E6ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88DB8003-B231-4433-B304-B2010C5E0C57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE26B0C1-F36D-4E8F-879A-6D263C6E1944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装卸、运输" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -214,47 +214,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PM10的最大控制率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25的最大控制率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO的最大控制率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC的最大控制率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO2 的最大控制率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX的最大控制率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3的最大控制率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OC排放量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BC排放量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OC的最大控制率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC的最大控制率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +230,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,14 +299,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -376,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -394,12 +350,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,12 +700,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AH6" sqref="A6:AH9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:Y505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -764,7 +714,7 @@
     <col min="2" max="2" width="5.47265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.47265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.47265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.47265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.47265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="34.15625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.3125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.3125" style="3" customWidth="1"/>
@@ -775,18 +725,12 @@
     <col min="14" max="14" width="14.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.68359375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.83984375"/>
-    <col min="17" max="18" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="34" width="9" style="1"/>
-    <col min="35" max="35" width="28.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="1"/>
+    <col min="17" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="28.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -835,65 +779,35 @@
       <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="Y1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -901,7 +815,7 @@
         <v>2013</v>
       </c>
       <c r="C2" s="5">
-        <v>650000</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -942,65 +856,35 @@
       <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10">
-        <v>0</v>
-      </c>
-      <c r="X2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +892,7 @@
         <v>2013</v>
       </c>
       <c r="C3" s="5">
-        <v>650100</v>
+        <v>210102</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -1049,65 +933,35 @@
       <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
-        <v>0</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1115,7 +969,7 @@
         <v>2013</v>
       </c>
       <c r="C4" s="5">
-        <v>650102</v>
+        <v>210102</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -1156,65 +1010,35 @@
       <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
-        <v>0</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1046,7 @@
         <v>2013</v>
       </c>
       <c r="C5" s="5">
-        <v>650103</v>
+        <v>210102</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -1263,127 +1087,33 @@
       <c r="P5" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="E7"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="E12" s="8"/>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1394,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M30"/>
+      <selection activeCell="O10" sqref="O10:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -1408,459 +1138,481 @@
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12.83984375" customWidth="1"/>
     <col min="14" max="14" width="11.47265625" customWidth="1"/>
+    <col min="15" max="15" width="27.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="O10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="O11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="O12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="O13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="O14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="O15" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="O16" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
